--- a/data/extracted_data/raw/Oliveira_etal_2020_Figure3.xlsx
+++ b/data/extracted_data/raw/Oliveira_etal_2020_Figure3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/extracted_data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{532C8488-E2C6-CE41-9494-58DFA3435AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA46241-EDBE-9A4D-85FA-C3510F6328CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{C6A859A0-563B-4744-8CF4-72AA2344F4FB}"/>
+    <workbookView xWindow="14020" yWindow="1220" windowWidth="27640" windowHeight="16940" xr2:uid="{C6A859A0-563B-4744-8CF4-72AA2344F4FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>day</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>toxicity</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>provided</t>
+  </si>
+  <si>
+    <t>digitized</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -422,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B1362E-61CB-B94F-A675-B5E10D69C72C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,8 +452,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -451,16 +466,25 @@
       <c r="C2">
         <v>92.08</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>5.8441558441558401</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -470,13 +494,50 @@
       <c r="C4">
         <v>14.17</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2.5974025974025801</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>106.25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>8.4415584415584206</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
